--- a/data/trans_orig/P33_2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Dificultad-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>7.14864599701777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.239840358361316</v>
+        <v>7.239840358361314</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.224261704764432</v>
+        <v>7.211329492513232</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.046862070551932</v>
+        <v>7.048520566616689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.150583552179312</v>
+        <v>7.150757215934369</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.492023201076343</v>
+        <v>7.486084855584369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.25098997194951</v>
+        <v>7.25436448225563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.320410762545701</v>
+        <v>7.325593275565985</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.492604176826084</v>
+        <v>7.492604176826085</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.313534915252622</v>
+        <v>7.313534915252623</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>7.39545080420728</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.399913708303753</v>
+        <v>7.397567702722514</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.234034955458884</v>
+        <v>7.242360584475918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.333035954663643</v>
+        <v>7.342632138892566</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.580256187818312</v>
+        <v>7.582191816422783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.390465644660351</v>
+        <v>7.389035141910766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.451065828613901</v>
+        <v>7.453944692599538</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>7.313700352608151</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.364396969780537</v>
+        <v>7.364396969780536</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.330136277387385</v>
+        <v>7.332526007329998</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.252398594136826</v>
+        <v>7.23937215883636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.31284118968024</v>
+        <v>7.306958879466865</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.492466037568804</v>
+        <v>7.490705494154443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.375630718990418</v>
+        <v>7.374837088824918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.414744889036096</v>
+        <v>7.414849144144845</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.26915865179733</v>
+        <v>7.269158651797327</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.208792122447543</v>
+        <v>7.208792122447544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.240222645667252</v>
+        <v>7.240222645667253</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.192436596864932</v>
+        <v>7.191648517542057</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.132800469224532</v>
+        <v>7.1348277762004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.178721646271802</v>
+        <v>7.184219329678606</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.355090655084884</v>
+        <v>7.359865762655916</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.286008166295644</v>
+        <v>7.289320126795411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.29577664028571</v>
+        <v>7.295766011475106</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.384718922086456</v>
+        <v>7.384718922086453</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.259748305044808</v>
+        <v>7.259748305044809</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.320415017331211</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.338805230298081</v>
+        <v>7.337555584095862</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.22113149010715</v>
+        <v>7.223295233419965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.292501377796812</v>
+        <v>7.291008423365021</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.433222319507125</v>
+        <v>7.42910110026083</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.298027473369059</v>
+        <v>7.300117906799252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.353231890903687</v>
+        <v>7.353272439322575</v>
       </c>
     </row>
     <row r="19">
